--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2454823333333333</v>
+        <v>0.2304126666666667</v>
       </c>
       <c r="H2">
-        <v>0.736447</v>
+        <v>0.691238</v>
       </c>
       <c r="I2">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="J2">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N2">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q2">
-        <v>5.502999559743333</v>
+        <v>6.113339286472001</v>
       </c>
       <c r="R2">
-        <v>49.52699603769</v>
+        <v>55.020053578248</v>
       </c>
       <c r="S2">
-        <v>0.01255734483282678</v>
+        <v>0.0129337023246523</v>
       </c>
       <c r="T2">
-        <v>0.01255734483282678</v>
+        <v>0.0129337023246523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2454823333333333</v>
+        <v>0.2304126666666667</v>
       </c>
       <c r="H3">
-        <v>0.736447</v>
+        <v>0.691238</v>
       </c>
       <c r="I3">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="J3">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q3">
-        <v>4.119657596770778</v>
+        <v>3.866760103410889</v>
       </c>
       <c r="R3">
-        <v>37.076918370937</v>
+        <v>34.800840930698</v>
       </c>
       <c r="S3">
-        <v>0.009400684203986733</v>
+        <v>0.008180721172964664</v>
       </c>
       <c r="T3">
-        <v>0.009400684203986735</v>
+        <v>0.008180721172964664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2454823333333333</v>
+        <v>0.2304126666666667</v>
       </c>
       <c r="H4">
-        <v>0.736447</v>
+        <v>0.691238</v>
       </c>
       <c r="I4">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="J4">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N4">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q4">
-        <v>4.174661677616555</v>
+        <v>5.454754908766667</v>
       </c>
       <c r="R4">
-        <v>37.571955098549</v>
+        <v>49.09279417889999</v>
       </c>
       <c r="S4">
-        <v>0.009526198517207089</v>
+        <v>0.01154036655548336</v>
       </c>
       <c r="T4">
-        <v>0.009526198517207089</v>
+        <v>0.01154036655548336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>18.048225</v>
       </c>
       <c r="I5">
-        <v>0.7715890252063808</v>
+        <v>0.8526166070240881</v>
       </c>
       <c r="J5">
-        <v>0.7715890252063808</v>
+        <v>0.8526166070240883</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N5">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q5">
-        <v>134.86289472175</v>
+        <v>159.6192960219</v>
       </c>
       <c r="R5">
-        <v>1213.76605249575</v>
+        <v>1436.5736641971</v>
       </c>
       <c r="S5">
-        <v>0.3077448681920696</v>
+        <v>0.33769898303963</v>
       </c>
       <c r="T5">
-        <v>0.3077448681920696</v>
+        <v>0.33769898303963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.048225</v>
       </c>
       <c r="I6">
-        <v>0.7715890252063808</v>
+        <v>0.8526166070240881</v>
       </c>
       <c r="J6">
-        <v>0.7715890252063808</v>
+        <v>0.8526166070240883</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.345671</v>
       </c>
       <c r="O6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q6">
         <v>100.9611108871083</v>
       </c>
       <c r="R6">
-        <v>908.6499979839751</v>
+        <v>908.649997983975</v>
       </c>
       <c r="S6">
-        <v>0.2303840787829925</v>
+        <v>0.2135986395307118</v>
       </c>
       <c r="T6">
-        <v>0.2303840787829925</v>
+        <v>0.2135986395307118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.048225</v>
       </c>
       <c r="I7">
-        <v>0.7715890252063808</v>
+        <v>0.8526166070240881</v>
       </c>
       <c r="J7">
-        <v>0.7715890252063808</v>
+        <v>0.8526166070240883</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N7">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q7">
-        <v>102.3091047373417</v>
+        <v>142.42365713875</v>
       </c>
       <c r="R7">
-        <v>920.781942636075</v>
+        <v>1281.81291424875</v>
       </c>
       <c r="S7">
-        <v>0.2334600782313187</v>
+        <v>0.3013189844537463</v>
       </c>
       <c r="T7">
-        <v>0.2334600782313187</v>
+        <v>0.3013189844537463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.535436666666667</v>
+        <v>0.8095266666666667</v>
       </c>
       <c r="H8">
-        <v>4.606310000000001</v>
+        <v>2.42858</v>
       </c>
       <c r="I8">
-        <v>0.1969267472395986</v>
+        <v>0.1147286029228115</v>
       </c>
       <c r="J8">
-        <v>0.1969267472395986</v>
+        <v>0.1147286029228115</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N8">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O8">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P8">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q8">
-        <v>34.42002194596667</v>
+        <v>21.47846837752</v>
       </c>
       <c r="R8">
-        <v>309.7801975137</v>
+        <v>193.30621539768</v>
       </c>
       <c r="S8">
-        <v>0.0785433616769412</v>
+        <v>0.04544097805908252</v>
       </c>
       <c r="T8">
-        <v>0.0785433616769412</v>
+        <v>0.04544097805908252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.535436666666667</v>
+        <v>0.8095266666666667</v>
       </c>
       <c r="H9">
-        <v>4.606310000000001</v>
+        <v>2.42858</v>
       </c>
       <c r="I9">
-        <v>0.1969267472395986</v>
+        <v>0.1147286029228115</v>
       </c>
       <c r="J9">
-        <v>0.1969267472395986</v>
+        <v>0.1147286029228115</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.345671</v>
       </c>
       <c r="O9">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P9">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q9">
-        <v>25.76752975377889</v>
+        <v>13.58538774190889</v>
       </c>
       <c r="R9">
-        <v>231.90776778401</v>
+        <v>122.26848967718</v>
       </c>
       <c r="S9">
-        <v>0.05879916091132985</v>
+        <v>0.02874196127272882</v>
       </c>
       <c r="T9">
-        <v>0.05879916091132987</v>
+        <v>0.02874196127272882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.535436666666667</v>
+        <v>0.8095266666666667</v>
       </c>
       <c r="H10">
-        <v>4.606310000000001</v>
+        <v>2.42858</v>
       </c>
       <c r="I10">
-        <v>0.1969267472395986</v>
+        <v>0.1147286029228115</v>
       </c>
       <c r="J10">
-        <v>0.1969267472395986</v>
+        <v>0.1147286029228115</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N10">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O10">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P10">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q10">
-        <v>26.11156788230778</v>
+        <v>19.16461287766667</v>
       </c>
       <c r="R10">
-        <v>235.00411094077</v>
+        <v>172.481515899</v>
       </c>
       <c r="S10">
-        <v>0.05958422465132751</v>
+        <v>0.04054566359100017</v>
       </c>
       <c r="T10">
-        <v>0.05958422465132752</v>
+        <v>0.04054566359100018</v>
       </c>
     </row>
   </sheetData>
